--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -451,1415 +451,1913 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>000991</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>工银瑞信战略转型主题股票A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>91.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>006551</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>中庚价值领航混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001869</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>89.28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>008884</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>博远博锐混合A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>74.93</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>008885</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>博远博锐混合C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>74.93</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010696</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>510060</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银上证央企50ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>76.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001415</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002046</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004569</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>004495</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时量化平衡混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>30.61</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004157</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004158</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009753</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009754</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1869,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,15 +2388,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1910,26 +2418,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000121</t>
+          <t>000251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏永福混合A</t>
+          <t>工银瑞信金融地产行业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002166</t>
+          <t>519133</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏永福混合C</t>
+          <t>海富通改革驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1976,15 +2504,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>46.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>005711</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>永赢惠添利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2022,26 +2570,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>010790</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>海富通均衡甄选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>37.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2050,25 +2608,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2078,26 +2646,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009753</t>
+          <t>007944</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧美益稳健两年持有期混合A</t>
+          <t>永赢乾元三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2106,26 +2684,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009754</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧美益稳健两年持有期混合C</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2134,26 +2722,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003739</t>
+          <t>002504</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新华鑫弘灵活配置混合</t>
+          <t>鹏华金鼎灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.62</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2162,25 +2760,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010636</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通安盈混合A</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.98</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2190,26 +2798,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010637</t>
+          <t>010791</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通安盈混合C</t>
+          <t>海富通均衡甄选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.98</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2218,26 +2836,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>000121</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>华夏永福混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>21.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2246,26 +2874,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2274,26 +2912,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004495</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时量化平衡混合</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>33.55</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2302,26 +2950,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004988</t>
+          <t>001415</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>人保双利优选混合A</t>
+          <t>信诚新锐回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2330,26 +2988,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004989</t>
+          <t>004157</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>人保双利优选混合C</t>
+          <t>信诚至诚灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2358,26 +3026,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>001402</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>信诚新选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2386,26 +3064,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004696</t>
+          <t>002166</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>东兴量化优享灵活配置混合</t>
+          <t>华夏永福混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2414,26 +3102,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2442,26 +3140,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>206013</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>鹏华宏观灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>34.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2470,26 +3178,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005711</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>永赢惠添利灵活配置混合</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2498,26 +3216,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000646</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合A</t>
+          <t>信诚新选回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2526,26 +3254,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007827</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华润元大量化优选混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2554,26 +3292,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>000646</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>华润元大量化优选混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2582,26 +3330,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>24.33</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -2610,26 +3368,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008342</t>
+          <t>010696</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合A</t>
+          <t>工银瑞信金融地产行业混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2638,26 +3406,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008343</t>
+          <t>010268</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>九泰科鑫策略精选灵活配置混合C</t>
+          <t>太平睿安混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2666,26 +3444,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>165310</t>
+          <t>005960</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信沪深300指数增强（LOF）A</t>
+          <t>博时量化价值股票A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2694,26 +3482,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009208</t>
+          <t>005961</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>建信沪深300指数增强（LOF）C</t>
+          <t>博时量化价值股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2722,25 +3520,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>165314</t>
+          <t>001427</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>建信信用增强债券（LOF）C</t>
+          <t>招商丰泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2750,26 +3558,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>165531</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信诚多策略灵活配置混合（LOF）</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>24.36</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2778,26 +3596,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>206013</t>
+          <t>003234</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华宏观灵活配置混合</t>
+          <t>信诚至利灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>34.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>8</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2806,26 +3634,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>000251</t>
+          <t>004158</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>工银瑞信金融地产行业混合A</t>
+          <t>信诚至诚灵活配置混合B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2834,26 +3672,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010696</t>
+          <t>003739</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>工银瑞信金融地产行业混合C</t>
+          <t>新华鑫弘灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2862,26 +3710,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2890,26 +3748,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>010636</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>财通安盈混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -2918,26 +3786,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>007275</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>银河沪深300指数增强A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>89.98</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2946,26 +3824,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>002046</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>信诚新锐回报灵活配置混合B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2974,26 +3862,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>010043</t>
+          <t>165310</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合A</t>
+          <t>建信沪深300指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3002,26 +3900,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>010044</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>天弘安康颐和混合C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>29.30</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -3030,26 +3938,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>004495</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>博时量化平衡混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>8</v>
+          <t>33.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3058,26 +3976,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>393001</t>
+          <t>165531</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中海优势精选灵活配置混合</t>
+          <t>信诚多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>71.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3086,25 +4014,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>010268</t>
+          <t>011473</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太平睿安混合A</t>
+          <t>工银瑞信战略转型主题股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3114,26 +4052,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010269</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太平睿安混合C</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -3142,26 +4090,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>501002</t>
+          <t>005870</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长信价值优选混合</t>
+          <t>鹏华沪深300指数增强</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -3180,15 +4138,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>3.03</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3198,26 +4166,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>007275</t>
+          <t>003235</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>银河沪深300指数增强A</t>
+          <t>信诚至利灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3226,25 +4204,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>007276</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>银河沪深300指数增强C</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>85.94</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3254,26 +4242,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>010790</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合A</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -3282,26 +4280,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010791</t>
+          <t>010637</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>海富通均衡甄选混合C</t>
+          <t>财通安盈混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -3310,26 +4318,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001402</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合A</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -3338,26 +4356,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>009753</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>信诚新选回报灵活配置混合B</t>
+          <t>中欧美益稳健两年持有期混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -3366,25 +4394,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>001415</t>
+          <t>008342</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合A</t>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,26 +4432,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>002046</t>
+          <t>501002</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>信诚新锐回报灵活配置混合B</t>
+          <t>长信价值优选混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -3422,25 +4470,35 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001427</t>
+          <t>007276</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合A</t>
+          <t>银河沪深300指数增强C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3450,25 +4508,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>001446</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>招商丰泽灵活配置混合C</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3478,26 +4546,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>519099</t>
+          <t>002263</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>新华灵活主题混合</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>84.58</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>4</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3506,26 +4584,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>519133</t>
+          <t>519099</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>海富通改革驱动灵活配置混合</t>
+          <t>新华灵活主题混合</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3534,26 +4622,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>010044</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>天弘安康颐和混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>10</v>
+          <t>29.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -3562,26 +4660,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>10</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3590,26 +4698,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>168106</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>九泰盈华量化灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>9</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3618,26 +4736,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>002159</t>
+          <t>009208</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴国企改革主题灵活配置混合</t>
+          <t>建信沪深300指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -3646,26 +4774,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>002263</t>
+          <t>168107</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
+          <t>九泰盈华量化灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3674,26 +4812,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>003554</t>
+          <t>002159</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
+          <t>东吴国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>3</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -3702,26 +4850,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>003554</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合A</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>5</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3730,26 +4888,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>002505</t>
+          <t>008343</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合C</t>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>5</v>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3758,26 +4926,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>168106</t>
+          <t>002505</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）A</t>
+          <t>鹏华金鼎灵活配置混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -3786,26 +4964,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>168107</t>
+          <t>010269</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>九泰盈华量化灵活配置混合（LOF）C</t>
+          <t>太平睿安混合C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3814,26 +5002,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>005870</t>
+          <t>001446</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鹏华沪深300指数增强</t>
+          <t>招商丰泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>6</v>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3842,25 +5040,35 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>004988</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>人保双利优选混合A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3870,26 +5078,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>005960</t>
+          <t>004696</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>博时量化价值股票A</t>
+          <t>东兴量化优享灵活配置混合</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>7</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3898,26 +5116,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>005961</t>
+          <t>007827</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>博时量化价值股票C</t>
+          <t>华润元大量化优选混合C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>7</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3926,26 +5154,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>003234</t>
+          <t>009754</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合A</t>
+          <t>中欧美益稳健两年持有期混合C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>1</v>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3954,26 +5192,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>003235</t>
+          <t>165314</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>信诚至利灵活配置混合C</t>
+          <t>建信信用增强债券（LOF）C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22.16</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3982,26 +5230,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>007944</t>
+          <t>004989</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>永赢乾元三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>98.76</t>
-        </is>
-      </c>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>6</v>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5238,7 +5239,6 @@
           <t>人保双利优选混合C</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>23.13</t>
@@ -5254,6 +5254,1620 @@
       </c>
       <c r="H76" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9831</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6873,4 +6874,856 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7726,4 +7727,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7735,7 +7736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7746,17 +7747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7766,14 +7787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7782,14 +7825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.28</v>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7798,14 +7863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.86</v>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7814,13 +7901,985 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8778,7 +8779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8789,17 +8790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8809,14 +8830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.58</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8825,14 +8868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8841,14 +8906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.28</v>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8857,14 +8944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.86</v>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8873,13 +8982,545 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9403,7 +9404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9414,17 +9415,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9434,14 +9455,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.11</v>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9450,14 +9493,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.58</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2065</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -9466,14 +9531,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -9482,14 +9569,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.28</v>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -9498,14 +9607,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.86</v>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -9514,13 +9645,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>6.18</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>5.11</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>5.58</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>11.28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>16.86</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.53</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9593</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014866</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +2398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3005,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3857,7 +4916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5471,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8370,7 +9429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601818-光大银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>5.38</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>6.18</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>5.58</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>11.28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>16.86</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1946 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>49</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7410</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>32.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2550,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012914</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1658,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2398,7 +5715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +6339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4064,7 +7381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4916,7 +8233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6530,7 +9847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9427,1920 +12744,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>103.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9905</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000991</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>57.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7410</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2846</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7809</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001869</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5732</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4226</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002504</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2727</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2574</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>30.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2225</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1994</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004569</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1982</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1530</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1320</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>76.79</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1199</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1101</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003308</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1038</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0822</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004157</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004158</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>信诚至诚灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.31</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001415</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002046</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>信诚新锐回报灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.14</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010696</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0754</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0674</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003739</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>新华鑫弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004495</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>博时量化平衡混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>30.61</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0578</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009753</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0560</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0468</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>011473</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银瑞信战略转型主题股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>510060</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>工银上证央企50ETF</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>009096</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002505</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华金鼎灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009754</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009097</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>鹏华安泽混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>28.44</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004635</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中信建投睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>43.29</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>